--- a/php/search_results.xlsx
+++ b/php/search_results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>날짜</t>
   </si>
@@ -39,6 +39,27 @@
   </si>
   <si>
     <t>비고</t>
+  </si>
+  <si>
+    <t>2023-08-09</t>
+  </si>
+  <si>
+    <t>안희쥬</t>
+  </si>
+  <si>
+    <t>이오</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>3333-08-02</t>
+  </si>
+  <si>
+    <t>이려우</t>
+  </si>
+  <si>
+    <t>삼사</t>
   </si>
 </sst>
 </file>
@@ -378,7 +399,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,6 +431,58 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>33</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>33</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
